--- a/SuppXLS/Scen_SYS_SectoralCarbonBudget.xlsx
+++ b/SuppXLS/Scen_SYS_SectoralCarbonBudget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47743D25-CDA4-4575-A0F2-781AA45784A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702A70B-5A87-43AB-9FE5-472FB6D26AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
   <si>
     <t>LimType</t>
   </si>
@@ -366,15 +366,6 @@
     <t>UC_RHS</t>
   </si>
   <si>
-    <t>2018-2050</t>
-  </si>
-  <si>
-    <t>UC_desc</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
@@ -417,9 +408,6 @@
     <t>T-A*INT*,T-NAV*</t>
   </si>
   <si>
-    <t>2051-2100</t>
-  </si>
-  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
@@ -487,6 +475,180 @@
   </si>
   <si>
     <t>James Glynn (UCC, james.glynn@ucc.ie)</t>
+  </si>
+  <si>
+    <t>2021-2025</t>
+  </si>
+  <si>
+    <t>2026-2030</t>
+  </si>
+  <si>
+    <t>UC_SCB_TRA_2021-2025_Multi</t>
+  </si>
+  <si>
+    <t>TRACO2N</t>
+  </si>
+  <si>
+    <t>UC_SCB_TRA_2026-2030_Multi</t>
+  </si>
+  <si>
+    <t>2021-2026</t>
+  </si>
+  <si>
+    <t>Sectoral Emissions Ceiling Estimates</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>LULUCF</t>
+  </si>
+  <si>
+    <t>UC_SCB_RSD_2021-2025_Multi</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>SRVCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2N,INDCO2P</t>
+  </si>
+  <si>
+    <t>UC_SCB_SRV_2021-2025_Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_PWR_2021-2025_Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_IND_2021-2025_Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_RSD_2026-2030_Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_SRV_2026-2030_Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_PWR_2026-2030_Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_IND_2026-2030_Multi</t>
+  </si>
+  <si>
+    <t>UC_NetZero_CO2_2050_Multi</t>
+  </si>
+  <si>
+    <t>Net Zero CO2 by 2050 - Multi</t>
+  </si>
+  <si>
+    <t>TRA Carbon Budget-2021-2025- Multi</t>
+  </si>
+  <si>
+    <t>TRA Carbon Budget-2026-2030- Multi</t>
+  </si>
+  <si>
+    <t>RSD Carbon Budget-2021-2025- Multi</t>
+  </si>
+  <si>
+    <t>RSD Carbon Budget-2026-2030- Multi</t>
+  </si>
+  <si>
+    <t>SRV Carbon Budget-2021-2025- Multi</t>
+  </si>
+  <si>
+    <t>SRV Carbon Budget-2026-2030- Multi</t>
+  </si>
+  <si>
+    <t>PWR Carbon Budget-2021-2025- Multi</t>
+  </si>
+  <si>
+    <t>PWR Carbon Budget-2026-2030- Multi</t>
+  </si>
+  <si>
+    <t>IND Carbon Budget-2021-2025- Multi</t>
+  </si>
+  <si>
+    <t>IND Carbon Budget-2026-2030- Multi</t>
+  </si>
+  <si>
+    <t>UC_SCB_TRA_2021-2025_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_TRA_2026-2030_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_RSD_2021-2025_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_RSD_2026-2030_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_SRV_2021-2025_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_SRV_2026-2030_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_PWR_2021-2025_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_PWR_2026-2030_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_IND_2021-2025_Single</t>
+  </si>
+  <si>
+    <t>UC_SCB_IND_2026-2030_Single</t>
+  </si>
+  <si>
+    <t>UC_NetZero_CO2_2050_Single</t>
+  </si>
+  <si>
+    <t>TRA Carbon Budget-2021-2025- Single</t>
+  </si>
+  <si>
+    <t>TRA Carbon Budget-2026-2030- Single</t>
+  </si>
+  <si>
+    <t>RSD Carbon Budget-2021-2025- Single</t>
+  </si>
+  <si>
+    <t>RSD Carbon Budget-2026-2030- Single</t>
+  </si>
+  <si>
+    <t>SRV Carbon Budget-2021-2025- Single</t>
+  </si>
+  <si>
+    <t>SRV Carbon Budget-2026-2030- Single</t>
+  </si>
+  <si>
+    <t>PWR Carbon Budget-2021-2025- Single</t>
+  </si>
+  <si>
+    <t>PWR Carbon Budget-2026-2030- Single</t>
+  </si>
+  <si>
+    <t>IND Carbon Budget-2021-2025- Single</t>
+  </si>
+  <si>
+    <t>IND Carbon Budget-2026-2030- Single</t>
+  </si>
+  <si>
+    <t>Net Zero CO2 by 2050 - Single</t>
   </si>
 </sst>
 </file>
@@ -496,7 +658,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +766,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1542,25 +1710,25 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="8" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="8" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="8" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="8" customWidth="1"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="8"/>
+    <col min="14" max="14" width="11.453125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1588,7 +1756,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1616,7 +1784,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1644,7 +1812,7 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1672,7 +1840,7 @@
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1700,7 +1868,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1728,7 +1896,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1756,7 +1924,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1784,7 +1952,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1812,7 +1980,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1840,7 +2008,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1868,7 +2036,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1896,7 +2064,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -1924,7 +2092,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -1952,7 +2120,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -1980,9 +2148,9 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2010,7 +2178,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -2038,7 +2206,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2066,12 +2234,12 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -2098,12 +2266,12 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -2130,12 +2298,12 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -2162,7 +2330,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -2190,12 +2358,12 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -2222,10 +2390,10 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
       <c r="B24" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -2252,7 +2420,7 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -2280,12 +2448,12 @@
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -2312,7 +2480,7 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -2340,7 +2508,7 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="27"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -2368,9 +2536,9 @@
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B29" s="31">
         <v>1</v>
@@ -2400,12 +2568,12 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -2432,12 +2600,12 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -2464,10 +2632,10 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -2494,7 +2662,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2522,7 +2690,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -2550,7 +2718,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2578,7 +2746,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2606,7 +2774,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -2634,7 +2802,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -2662,7 +2830,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2690,7 +2858,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2718,7 +2886,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2746,7 +2914,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -2774,7 +2942,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2802,7 +2970,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2830,7 +2998,7 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2858,7 +3026,7 @@
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2886,7 +3054,7 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2914,7 +3082,7 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2942,7 +3110,7 @@
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2970,7 +3138,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2998,7 +3166,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3026,7 +3194,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3054,7 +3222,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3082,7 +3250,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3110,7 +3278,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3138,7 +3306,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3166,7 +3334,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3194,7 +3362,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3222,7 +3390,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3250,7 +3418,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3278,7 +3446,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3306,7 +3474,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3334,7 +3502,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3362,7 +3530,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3390,7 +3558,7 @@
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3418,7 +3586,7 @@
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3446,7 +3614,7 @@
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3474,7 +3642,7 @@
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3502,7 +3670,7 @@
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3530,7 +3698,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3558,7 +3726,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3586,7 +3754,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3614,7 +3782,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3642,7 +3810,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3670,7 +3838,7 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="21"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3698,7 +3866,7 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="21"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3726,7 +3894,7 @@
       <c r="Y76" s="21"/>
       <c r="Z76" s="21"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3754,7 +3922,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -3782,7 +3950,7 @@
       <c r="Y78" s="21"/>
       <c r="Z78" s="21"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -3810,7 +3978,7 @@
       <c r="Y79" s="21"/>
       <c r="Z79" s="21"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -3838,7 +4006,7 @@
       <c r="Y80" s="21"/>
       <c r="Z80" s="21"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3866,7 +4034,7 @@
       <c r="Y81" s="21"/>
       <c r="Z81" s="21"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -3894,7 +4062,7 @@
       <c r="Y82" s="21"/>
       <c r="Z82" s="21"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3922,7 +4090,7 @@
       <c r="Y83" s="21"/>
       <c r="Z83" s="21"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3950,7 +4118,7 @@
       <c r="Y84" s="21"/>
       <c r="Z84" s="21"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3978,7 +4146,7 @@
       <c r="Y85" s="21"/>
       <c r="Z85" s="21"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4006,7 +4174,7 @@
       <c r="Y86" s="21"/>
       <c r="Z86" s="21"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4034,7 +4202,7 @@
       <c r="Y87" s="21"/>
       <c r="Z87" s="21"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4062,7 +4230,7 @@
       <c r="Y88" s="21"/>
       <c r="Z88" s="21"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4090,7 +4258,7 @@
       <c r="Y89" s="21"/>
       <c r="Z89" s="21"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4118,7 +4286,7 @@
       <c r="Y90" s="21"/>
       <c r="Z90" s="21"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4146,7 +4314,7 @@
       <c r="Y91" s="21"/>
       <c r="Z91" s="21"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4174,7 +4342,7 @@
       <c r="Y92" s="21"/>
       <c r="Z92" s="21"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4202,7 +4370,7 @@
       <c r="Y93" s="21"/>
       <c r="Z93" s="21"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4230,7 +4398,7 @@
       <c r="Y94" s="21"/>
       <c r="Z94" s="21"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4258,7 +4426,7 @@
       <c r="Y95" s="21"/>
       <c r="Z95" s="21"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4286,7 +4454,7 @@
       <c r="Y96" s="21"/>
       <c r="Z96" s="21"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -4314,7 +4482,7 @@
       <c r="Y97" s="21"/>
       <c r="Z97" s="21"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -4342,7 +4510,7 @@
       <c r="Y98" s="21"/>
       <c r="Z98" s="21"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -4399,40 +4567,40 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4546,12 +4714,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4666,7 +4834,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -4783,7 +4951,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4900,7 +5068,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4908,7 +5076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -4916,7 +5084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -4924,7 +5092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -4932,7 +5100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -4940,7 +5108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -4948,7 +5116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -4956,7 +5124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -4964,7 +5132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -4972,7 +5140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -4980,7 +5148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
@@ -4988,7 +5156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -4996,7 +5164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -5004,7 +5172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
@@ -5012,7 +5180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -5020,7 +5188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
@@ -5028,7 +5196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -5036,7 +5204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -5044,7 +5212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -5052,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
@@ -5060,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -5068,7 +5236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
@@ -5076,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
@@ -5084,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -5092,7 +5260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
@@ -5100,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>58</v>
       </c>
@@ -5108,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -5116,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
@@ -5160,25 +5328,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011941A8-04BF-45E8-9F60-D4E07475AB4A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.1796875" style="8"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="8"/>
-    <col min="13" max="13" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.1796875" style="8"/>
+    <col min="13" max="13" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="15" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -5197,7 +5365,7 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -5216,9 +5384,11 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3"/>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -5235,229 +5405,108 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",C7,"Mt",C6)</f>
-        <v>UC_CB_420_Mt_2018-2050</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",D7,"Mt",D6)</f>
-        <v>UC_CB_0_Mt_2051-2100</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Carbon budget",C7,"Mt",C6)</f>
-        <v>Carbon budget 420 Mt 2018-2050</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Carbon budget",D7,"Mt",D6)</f>
-        <v>Carbon budget 0 Mt 2051-2100</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="C6" s="8">
+        <v>41.594970666666654</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18.047466666666665</v>
+      </c>
+      <c r="E6" s="8">
+        <v>59.642437333333319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C7" s="8">
-        <v>420</v>
+        <v>46.384803111111104</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>33.159511111111101</v>
+      </c>
+      <c r="E7" s="8">
+        <v>79.544314222222198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C8" s="8">
+        <v>38.32868878222223</v>
+      </c>
+      <c r="D8" s="8">
+        <v>24.088334222222226</v>
+      </c>
+      <c r="E8" s="8">
+        <v>62.417023004444459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43.881727327334858</v>
+      </c>
+      <c r="D9" s="8">
+        <v>29.032066422098612</v>
+      </c>
+      <c r="E9" s="8">
+        <v>72.913793749433466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C10" s="8">
+        <v>105.19932705072635</v>
+      </c>
+      <c r="D10" s="8">
+        <v>83.475795065110944</v>
+      </c>
+      <c r="E10" s="8">
+        <v>188.6751221158373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+        <v>117</v>
+      </c>
+      <c r="C11" s="8">
+        <v>19.591454274255817</v>
+      </c>
+      <c r="D11" s="8">
+        <v>12.15847816690407</v>
+      </c>
+      <c r="E11" s="8">
+        <v>31.749932441159885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C12" s="8">
+        <v>294.980971212317</v>
+      </c>
+      <c r="D12" s="8">
+        <v>199.96165165411364</v>
+      </c>
+      <c r="E12" s="8">
+        <v>494.94262286643061</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5468,52 +5517,52 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.1796875" style="8"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="8"/>
+    <col min="5" max="5" width="16.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="8"/>
+    <col min="9" max="9" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="8" customWidth="1"/>
     <col min="11" max="11" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="12" max="12" width="33.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="str">
         <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H4" s="8" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
@@ -5521,25 +5570,25 @@
         <v>62</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>65</v>
@@ -5548,9 +5597,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5561,128 +5610,393 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="str">
-        <f>VLOOKUP($B$5, config!$B$4:$D$14,2,FALSE) &amp; "_Single"</f>
-        <v>UC_CB_420_Mt_2018-2050_Single</v>
-      </c>
-      <c r="C7" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>2018-2050</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>NET</v>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f>VLOOKUP(H$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>UP</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="I7" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$D$14,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="K7" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$D$14,2,FALSE)*1000</f>
-        <v>420000</v>
-      </c>
-      <c r="L7" s="8" t="str">
-        <f>VLOOKUP($L$5, config!$B$4:$D$14,2,FALSE) &amp; " - Single"</f>
-        <v>Carbon budget 420 Mt 2018-2050 - Single</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>2018-2050</v>
+        <f>config!C7*1000</f>
+        <v>46384.803111111105</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="J8" s="8">
-        <f>VLOOKUP(J$5, config!$B$4:$D$14,2,FALSE)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="str">
-        <f>VLOOKUP($B$5, config!$B$4:$D$14,3,FALSE) &amp; "_Single"</f>
-        <v>UC_CB_0_Mt_2051-2100_Single</v>
-      </c>
-      <c r="C9" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>2051-2100</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>NET</v>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f>VLOOKUP(H$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>UP</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="I9" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$D$14,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="K9" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$D$14,3,FALSE)*1000</f>
+        <f>config!D7*1000</f>
+        <v>33159.511111111104</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <f>config!C8*0.8*1000</f>
+        <v>30662.951025777787</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <f>config!D8*0.8*1000</f>
+        <v>19270.667377777783</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <f>config!C8*0.2*1000</f>
+        <v>7665.7377564444469</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <f>config!D8*0.2*1000</f>
+        <v>4817.6668444444458</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <f>config!C6*1000</f>
+        <v>41594.970666666653</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <f>config!D6*1000</f>
+        <v>18047.466666666664</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <f>config!C9*1000</f>
+        <v>43881.727327334855</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <f>config!D9*1000</f>
+        <v>29032.066422098611</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2050</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="str">
-        <f>VLOOKUP($L$5, config!$B$4:$D$14,3,FALSE) &amp; " - Single"</f>
-        <v>Carbon budget 0 Mt 2051-2100 - Single</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>2051-2100</v>
-      </c>
-      <c r="J10" s="8">
-        <f>VLOOKUP(J$5, config!$B$4:$D$14,3,FALSE)</f>
+      <c r="L19" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2050</v>
+      </c>
+      <c r="I20" s="8">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5694,52 +6008,52 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC2971-91FC-4261-B0BB-58C7F43C1746}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L7" sqref="L7:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="30.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="2" max="2" width="30.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="8"/>
+    <col min="5" max="5" width="16.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="8"/>
+    <col min="9" max="9" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="str">
         <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
         <v>~UC_Sets: R_S: National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H4" s="8" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
@@ -5747,25 +6061,25 @@
         <v>62</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>67</v>
@@ -5774,9 +6088,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5787,131 +6101,397 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$D$14,2,FALSE) &amp; "_Multi"</f>
-        <v>UC_CB_420_Mt_2018-2050_Multi</v>
-      </c>
-      <c r="C7" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>2018-2050</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>NET</v>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f>VLOOKUP(H$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>UP</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="I7" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$D$14,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="K7" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$D$14,2,FALSE)*1000</f>
-        <v>420000</v>
-      </c>
-      <c r="L7" s="8" t="str">
-        <f>VLOOKUP(L$5, config!$B$4:$D$14,2,FALSE) &amp; " - Multi"</f>
-        <v>Carbon budget 420 Mt 2018-2050 - Multi</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,2,FALSE)</f>
-        <v>2018-2050</v>
+        <f>config!C7*1000</f>
+        <v>46384.803111111105</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="J8" s="8">
-        <f>VLOOKUP(J$5, config!$B$4:$D$14,2,FALSE)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$D$14,3,FALSE) &amp; "_Multi"</f>
-        <v>UC_CB_0_Mt_2051-2100_Multi</v>
-      </c>
-      <c r="C9" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>2051-2100</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>NET</v>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f>VLOOKUP(H$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>UP</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="I9" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$D$14,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="K9" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$D$14,3,FALSE)*1000</f>
+        <f>config!D7*1000</f>
+        <v>33159.511111111104</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <f>config!C8*0.8*1000</f>
+        <v>30662.951025777787</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <f>config!D8*0.8*1000</f>
+        <v>19270.667377777783</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <f>config!C8*0.2*1000</f>
+        <v>7665.7377564444469</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <f>config!D8*0.2*1000</f>
+        <v>4817.6668444444458</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <f>config!C6*1000</f>
+        <v>41594.970666666653</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <f>config!D6*1000</f>
+        <v>18047.466666666664</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <f>config!C9*1000</f>
+        <v>43881.727327334855</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <f>config!D9*1000</f>
+        <v>29032.066422098611</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2050</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="str">
-        <f>VLOOKUP(L$5, config!$B$4:$D$14,3,FALSE) &amp; " - Multi"</f>
-        <v>Carbon budget 0 Mt 2051-2100 - Multi</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$D$14,3,FALSE)</f>
-        <v>2051-2100</v>
-      </c>
-      <c r="J10" s="8">
-        <f>VLOOKUP(J$5, config!$B$4:$D$14,3,FALSE)</f>
+      <c r="L19" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2050</v>
+      </c>
+      <c r="I20" s="8">
         <v>-1</v>
       </c>
     </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5926,17 +6506,17 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5945,18 +6525,18 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>62</v>
@@ -5970,19 +6550,19 @@
         <v>National</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" s="19">
         <v>-1</v>

--- a/SuppXLS/Scen_SYS_SectoralCarbonBudget.xlsx
+++ b/SuppXLS/Scen_SYS_SectoralCarbonBudget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\Documents\Veda\times-ireland-model-sectoral_cb\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702A70B-5A87-43AB-9FE5-472FB6D26AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D30169-8DCC-42F0-8E75-509892F43EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5970" yWindow="1215" windowWidth="18000" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -1714,21 +1714,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="8" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="8" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="8" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="8" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="8" customWidth="1"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="8"/>
+    <col min="14" max="14" width="11.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1756,7 +1756,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1784,7 +1784,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1812,7 +1812,7 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1840,7 +1840,7 @@
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1868,7 +1868,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1896,7 +1896,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1924,7 +1924,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1952,7 +1952,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1980,7 +1980,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2008,7 +2008,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2036,7 +2036,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2064,7 +2064,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -2092,7 +2092,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -2120,7 +2120,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2148,7 +2148,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>88</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -2206,7 +2206,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2234,7 +2234,7 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>89</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>90</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>91</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -2358,7 +2358,7 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>92</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="30" t="s">
         <v>104</v>
@@ -2420,7 +2420,7 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -2448,7 +2448,7 @@
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>93</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -2508,7 +2508,7 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -2536,7 +2536,7 @@
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>94</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>95</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>97</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
         <v>99</v>
@@ -2662,7 +2662,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2690,7 +2690,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -2718,7 +2718,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2746,7 +2746,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2774,7 +2774,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -2802,7 +2802,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -2830,7 +2830,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2858,7 +2858,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2886,7 +2886,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2914,7 +2914,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -2942,7 +2942,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2970,7 +2970,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2998,7 +2998,7 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3026,7 +3026,7 @@
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3054,7 +3054,7 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3082,7 +3082,7 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3110,7 +3110,7 @@
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3138,7 +3138,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3166,7 +3166,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3194,7 +3194,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3222,7 +3222,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3250,7 +3250,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3278,7 +3278,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3306,7 +3306,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3334,7 +3334,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3362,7 +3362,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3390,7 +3390,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3418,7 +3418,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3446,7 +3446,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3474,7 +3474,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3502,7 +3502,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3530,7 +3530,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3558,7 +3558,7 @@
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3586,7 +3586,7 @@
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3614,7 +3614,7 @@
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3642,7 +3642,7 @@
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3670,7 +3670,7 @@
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3698,7 +3698,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3726,7 +3726,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3754,7 +3754,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3782,7 +3782,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3810,7 +3810,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3838,7 +3838,7 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="21"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3866,7 +3866,7 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="21"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3894,7 +3894,7 @@
       <c r="Y76" s="21"/>
       <c r="Z76" s="21"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3922,7 +3922,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -3950,7 +3950,7 @@
       <c r="Y78" s="21"/>
       <c r="Z78" s="21"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -3978,7 +3978,7 @@
       <c r="Y79" s="21"/>
       <c r="Z79" s="21"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4006,7 +4006,7 @@
       <c r="Y80" s="21"/>
       <c r="Z80" s="21"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4034,7 +4034,7 @@
       <c r="Y81" s="21"/>
       <c r="Z81" s="21"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4062,7 +4062,7 @@
       <c r="Y82" s="21"/>
       <c r="Z82" s="21"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4090,7 +4090,7 @@
       <c r="Y83" s="21"/>
       <c r="Z83" s="21"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4118,7 +4118,7 @@
       <c r="Y84" s="21"/>
       <c r="Z84" s="21"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4146,7 +4146,7 @@
       <c r="Y85" s="21"/>
       <c r="Z85" s="21"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4174,7 +4174,7 @@
       <c r="Y86" s="21"/>
       <c r="Z86" s="21"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4202,7 +4202,7 @@
       <c r="Y87" s="21"/>
       <c r="Z87" s="21"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4230,7 +4230,7 @@
       <c r="Y88" s="21"/>
       <c r="Z88" s="21"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4258,7 +4258,7 @@
       <c r="Y89" s="21"/>
       <c r="Z89" s="21"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4286,7 +4286,7 @@
       <c r="Y90" s="21"/>
       <c r="Z90" s="21"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4314,7 +4314,7 @@
       <c r="Y91" s="21"/>
       <c r="Z91" s="21"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4342,7 +4342,7 @@
       <c r="Y92" s="21"/>
       <c r="Z92" s="21"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4370,7 +4370,7 @@
       <c r="Y93" s="21"/>
       <c r="Z93" s="21"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4398,7 +4398,7 @@
       <c r="Y94" s="21"/>
       <c r="Z94" s="21"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4426,7 +4426,7 @@
       <c r="Y95" s="21"/>
       <c r="Z95" s="21"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4454,7 +4454,7 @@
       <c r="Y96" s="21"/>
       <c r="Z96" s="21"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -4482,7 +4482,7 @@
       <c r="Y97" s="21"/>
       <c r="Z97" s="21"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -4510,7 +4510,7 @@
       <c r="Y98" s="21"/>
       <c r="Z98" s="21"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -4567,40 +4567,40 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="1"/>
+    <col min="29" max="29" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4714,12 +4714,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>58</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
@@ -5334,19 +5334,19 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.1796875" style="8"/>
-    <col min="13" max="13" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" style="8"/>
+    <col min="13" max="13" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="8"/>
+    <col min="15" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -5365,7 +5365,7 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -5384,7 +5384,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>111</v>
@@ -5405,7 +5405,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>105</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>59.642437333333319</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>79.544314222222198</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>114</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>62.417023004444459</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>115</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>72.913793749433466</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>116</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>188.6751221158373</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>117</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>31.749932441159885</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="8">
         <v>294.980971212317</v>
       </c>
@@ -5519,50 +5519,50 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="8"/>
-    <col min="5" max="5" width="16.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="8"/>
-    <col min="9" max="9" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
     <col min="11" max="11" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="8"/>
+    <col min="12" max="12" width="33.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="str">
         <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="8" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>141</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>142</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>78</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>143</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>144</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>145</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>146</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>147</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>148</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>149</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>150</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>151</v>
       </c>
@@ -5964,17 +5964,17 @@
       <c r="G19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>78</v>
       </c>
@@ -5987,15 +5987,15 @@
       <c r="F20" s="8">
         <v>2050</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6010,50 +6010,50 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
-    <col min="2" max="2" width="30.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="8"/>
-    <col min="5" max="5" width="16.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="8"/>
-    <col min="9" max="9" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="30.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="str">
         <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
         <v>~UC_Sets: R_S: National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="8" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>107</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>78</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>118</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>125</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>122</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>126</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>123</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>127</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>124</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>128</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>129</v>
       </c>
@@ -6455,17 +6455,17 @@
       <c r="G19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>78</v>
       </c>
@@ -6478,15 +6478,15 @@
       <c r="F20" s="8">
         <v>2050</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6506,15 +6506,15 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>82</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>83</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>National</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="10" t="s">
         <v>85</v>

--- a/SuppXLS/Scen_SYS_SectoralCarbonBudget.xlsx
+++ b/SuppXLS/Scen_SYS_SectoralCarbonBudget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\Documents\Veda\times-ireland-model-sectoral_cb\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D30169-8DCC-42F0-8E75-509892F43EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33AB2F-1CD5-4356-AACB-93413A67D094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5970" yWindow="1215" windowWidth="18000" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>LimType</t>
   </si>
@@ -649,6 +649,18 @@
   </si>
   <si>
     <t>Net Zero CO2 by 2050 - Single</t>
+  </si>
+  <si>
+    <t>UC_COMNET</t>
+  </si>
+  <si>
+    <t>UC_FLO</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS</t>
+  </si>
+  <si>
+    <t>UC_RHSTS</t>
   </si>
 </sst>
 </file>
@@ -906,7 +918,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,6 +998,8 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1714,21 +1728,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="8" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="8" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="8" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="8" customWidth="1"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="8"/>
+    <col min="14" max="14" width="11.3984375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1756,7 +1770,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1784,7 +1798,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1812,7 +1826,7 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1840,7 +1854,7 @@
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1868,7 +1882,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1896,7 +1910,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1924,7 +1938,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1952,7 +1966,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1980,7 +1994,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2008,7 +2022,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2036,7 +2050,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2064,7 +2078,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -2092,7 +2106,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -2120,7 +2134,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2148,7 +2162,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="36" t="s">
         <v>88</v>
       </c>
@@ -2178,7 +2192,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -2206,7 +2220,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -2234,7 +2248,7 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>89</v>
       </c>
@@ -2266,7 +2280,7 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>90</v>
       </c>
@@ -2298,7 +2312,7 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>91</v>
       </c>
@@ -2330,7 +2344,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -2358,7 +2372,7 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>92</v>
       </c>
@@ -2390,7 +2404,7 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="30" t="s">
         <v>104</v>
@@ -2420,7 +2434,7 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -2448,7 +2462,7 @@
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>93</v>
       </c>
@@ -2480,7 +2494,7 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -2508,7 +2522,7 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="27"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -2536,7 +2550,7 @@
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>94</v>
       </c>
@@ -2568,7 +2582,7 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>95</v>
       </c>
@@ -2600,7 +2614,7 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>97</v>
       </c>
@@ -2632,7 +2646,7 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
         <v>99</v>
@@ -2662,7 +2676,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2690,7 +2704,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -2718,7 +2732,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2746,7 +2760,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2774,7 +2788,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -2802,7 +2816,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -2830,7 +2844,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2858,7 +2872,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2886,7 +2900,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2914,7 +2928,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -2942,7 +2956,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2970,7 +2984,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2998,7 +3012,7 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3026,7 +3040,7 @@
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3054,7 +3068,7 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3082,7 +3096,7 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3110,7 +3124,7 @@
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3138,7 +3152,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3166,7 +3180,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3194,7 +3208,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3222,7 +3236,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3250,7 +3264,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3278,7 +3292,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3306,7 +3320,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3334,7 +3348,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3362,7 +3376,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3390,7 +3404,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3418,7 +3432,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3446,7 +3460,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3474,7 +3488,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3502,7 +3516,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3530,7 +3544,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3558,7 +3572,7 @@
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3586,7 +3600,7 @@
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3614,7 +3628,7 @@
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3642,7 +3656,7 @@
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3670,7 +3684,7 @@
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3698,7 +3712,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3726,7 +3740,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3754,7 +3768,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3782,7 +3796,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3810,7 +3824,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3838,7 +3852,7 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="21"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3866,7 +3880,7 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="21"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3894,7 +3908,7 @@
       <c r="Y76" s="21"/>
       <c r="Z76" s="21"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3922,7 +3936,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -3950,7 +3964,7 @@
       <c r="Y78" s="21"/>
       <c r="Z78" s="21"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -3978,7 +3992,7 @@
       <c r="Y79" s="21"/>
       <c r="Z79" s="21"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4006,7 +4020,7 @@
       <c r="Y80" s="21"/>
       <c r="Z80" s="21"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4034,7 +4048,7 @@
       <c r="Y81" s="21"/>
       <c r="Z81" s="21"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4062,7 +4076,7 @@
       <c r="Y82" s="21"/>
       <c r="Z82" s="21"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4090,7 +4104,7 @@
       <c r="Y83" s="21"/>
       <c r="Z83" s="21"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4118,7 +4132,7 @@
       <c r="Y84" s="21"/>
       <c r="Z84" s="21"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4146,7 +4160,7 @@
       <c r="Y85" s="21"/>
       <c r="Z85" s="21"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4174,7 +4188,7 @@
       <c r="Y86" s="21"/>
       <c r="Z86" s="21"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4202,7 +4216,7 @@
       <c r="Y87" s="21"/>
       <c r="Z87" s="21"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4230,7 +4244,7 @@
       <c r="Y88" s="21"/>
       <c r="Z88" s="21"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4258,7 +4272,7 @@
       <c r="Y89" s="21"/>
       <c r="Z89" s="21"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4286,7 +4300,7 @@
       <c r="Y90" s="21"/>
       <c r="Z90" s="21"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4314,7 +4328,7 @@
       <c r="Y91" s="21"/>
       <c r="Z91" s="21"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4342,7 +4356,7 @@
       <c r="Y92" s="21"/>
       <c r="Z92" s="21"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4370,7 +4384,7 @@
       <c r="Y93" s="21"/>
       <c r="Z93" s="21"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4398,7 +4412,7 @@
       <c r="Y94" s="21"/>
       <c r="Z94" s="21"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4426,7 +4440,7 @@
       <c r="Y95" s="21"/>
       <c r="Z95" s="21"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4454,7 +4468,7 @@
       <c r="Y96" s="21"/>
       <c r="Z96" s="21"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -4482,7 +4496,7 @@
       <c r="Y97" s="21"/>
       <c r="Z97" s="21"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -4510,7 +4524,7 @@
       <c r="Y98" s="21"/>
       <c r="Z98" s="21"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -4567,40 +4581,40 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4714,12 +4728,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4834,7 +4848,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -4951,7 +4965,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -5068,7 +5082,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5076,7 +5090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -5084,7 +5098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -5092,7 +5106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -5100,7 +5114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -5108,7 +5122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -5116,7 +5130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -5124,7 +5138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -5132,7 +5146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -5140,7 +5154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -5148,7 +5162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
@@ -5156,7 +5170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -5164,7 +5178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -5172,7 +5186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
@@ -5180,7 +5194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -5188,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
@@ -5196,7 +5210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -5204,7 +5218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -5212,7 +5226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -5220,7 +5234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>52</v>
       </c>
@@ -5228,7 +5242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -5236,7 +5250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
@@ -5244,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
@@ -5252,7 +5266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -5260,7 +5274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
@@ -5268,7 +5282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>58</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -5284,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
@@ -5331,22 +5345,22 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.1328125" style="8"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1328125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="8"/>
-    <col min="13" max="13" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.1328125" style="8"/>
+    <col min="13" max="13" width="10.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="15" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -5365,7 +5379,7 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -5384,7 +5398,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>111</v>
@@ -5405,7 +5419,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C5" s="8" t="s">
         <v>105</v>
       </c>
@@ -5413,7 +5427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
@@ -5427,7 +5441,7 @@
         <v>59.642437333333319</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
@@ -5441,7 +5455,7 @@
         <v>79.544314222222198</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>114</v>
       </c>
@@ -5455,7 +5469,7 @@
         <v>62.417023004444459</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>115</v>
       </c>
@@ -5469,7 +5483,7 @@
         <v>72.913793749433466</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>116</v>
       </c>
@@ -5483,7 +5497,7 @@
         <v>188.6751221158373</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>117</v>
       </c>
@@ -5497,7 +5511,7 @@
         <v>31.749932441159885</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C12" s="8">
         <v>294.980971212317</v>
       </c>
@@ -5517,52 +5531,52 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="8"/>
+    <col min="2" max="2" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="8"/>
+    <col min="5" max="5" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="12" max="12" width="33.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="str">
         <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H4" s="8" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
@@ -5597,7 +5611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -5614,7 +5628,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>141</v>
       </c>
@@ -5636,7 +5650,7 @@
       <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="39">
         <f>config!C7*1000</f>
         <v>46384.803111111105</v>
       </c>
@@ -5644,7 +5658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
@@ -5660,8 +5674,9 @@
       <c r="J8" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>142</v>
       </c>
@@ -5683,7 +5698,7 @@
       <c r="I9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="39">
         <f>config!D7*1000</f>
         <v>33159.511111111104</v>
       </c>
@@ -5691,7 +5706,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C10" s="8" t="s">
         <v>78</v>
       </c>
@@ -5707,8 +5722,9 @@
       <c r="J10" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>143</v>
       </c>
@@ -5730,7 +5746,7 @@
       <c r="I11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="39">
         <f>config!C8*0.8*1000</f>
         <v>30662.951025777787</v>
       </c>
@@ -5738,7 +5754,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>144</v>
       </c>
@@ -5760,7 +5776,7 @@
       <c r="I12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="39">
         <f>config!D8*0.8*1000</f>
         <v>19270.667377777783</v>
       </c>
@@ -5768,7 +5784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>145</v>
       </c>
@@ -5790,7 +5806,7 @@
       <c r="I13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="39">
         <f>config!C8*0.2*1000</f>
         <v>7665.7377564444469</v>
       </c>
@@ -5798,7 +5814,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>146</v>
       </c>
@@ -5820,7 +5836,7 @@
       <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="39">
         <f>config!D8*0.2*1000</f>
         <v>4817.6668444444458</v>
       </c>
@@ -5828,7 +5844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>147</v>
       </c>
@@ -5850,7 +5866,7 @@
       <c r="I15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="39">
         <f>config!C6*1000</f>
         <v>41594.970666666653</v>
       </c>
@@ -5858,7 +5874,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>148</v>
       </c>
@@ -5880,7 +5896,7 @@
       <c r="I16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="39">
         <f>config!D6*1000</f>
         <v>18047.466666666664</v>
       </c>
@@ -5888,7 +5904,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>149</v>
       </c>
@@ -5910,7 +5926,7 @@
       <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="39">
         <f>config!C9*1000</f>
         <v>43881.727327334855</v>
       </c>
@@ -5918,7 +5934,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>150</v>
       </c>
@@ -5940,7 +5956,7 @@
       <c r="I18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="39">
         <f>config!D9*1000</f>
         <v>29032.066422098611</v>
       </c>
@@ -5948,54 +5964,145 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G23" s="8" t="str">
+        <f>IF(RIGHT(A21,1)&lt;&gt;" ","~UC_T","")</f>
+        <v>~UC_T</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F26" s="8">
+        <v>2030</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>19600</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2030</v>
+      </c>
+      <c r="I27" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="8">
         <v>2050</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="8">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="K19" s="8">
+      <c r="J28" s="8">
         <v>0</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F29" s="8">
         <v>2050</v>
       </c>
-      <c r="J20" s="8">
+      <c r="I29" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="8">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="J30" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6008,52 +6115,52 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC2971-91FC-4261-B0BB-58C7F43C1746}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="30.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.1328125" style="8"/>
+    <col min="2" max="2" width="26.46484375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="8"/>
+    <col min="5" max="5" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.9296875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="36.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="str">
         <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
         <v>~UC_Sets: R_S: National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H4" s="8" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
@@ -6088,7 +6195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -6105,7 +6212,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>107</v>
       </c>
@@ -6127,7 +6234,7 @@
       <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="39">
         <f>config!C7*1000</f>
         <v>46384.803111111105</v>
       </c>
@@ -6135,7 +6242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
@@ -6151,8 +6258,9 @@
       <c r="J8" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -6174,7 +6282,7 @@
       <c r="I9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="39">
         <f>config!D7*1000</f>
         <v>33159.511111111104</v>
       </c>
@@ -6182,7 +6290,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C10" s="8" t="s">
         <v>78</v>
       </c>
@@ -6198,8 +6306,9 @@
       <c r="J10" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>118</v>
       </c>
@@ -6221,7 +6330,7 @@
       <c r="I11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="39">
         <f>config!C8*0.8*1000</f>
         <v>30662.951025777787</v>
       </c>
@@ -6229,7 +6338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>125</v>
       </c>
@@ -6251,7 +6360,7 @@
       <c r="I12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="39">
         <f>config!D8*0.8*1000</f>
         <v>19270.667377777783</v>
       </c>
@@ -6259,7 +6368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>122</v>
       </c>
@@ -6281,7 +6390,7 @@
       <c r="I13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="39">
         <f>config!C8*0.2*1000</f>
         <v>7665.7377564444469</v>
       </c>
@@ -6289,7 +6398,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>126</v>
       </c>
@@ -6311,7 +6420,7 @@
       <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="39">
         <f>config!D8*0.2*1000</f>
         <v>4817.6668444444458</v>
       </c>
@@ -6319,7 +6428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>123</v>
       </c>
@@ -6341,7 +6450,7 @@
       <c r="I15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="39">
         <f>config!C6*1000</f>
         <v>41594.970666666653</v>
       </c>
@@ -6349,7 +6458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>127</v>
       </c>
@@ -6371,7 +6480,7 @@
       <c r="I16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="39">
         <f>config!D6*1000</f>
         <v>18047.466666666664</v>
       </c>
@@ -6379,7 +6488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>124</v>
       </c>
@@ -6401,7 +6510,7 @@
       <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="39">
         <f>config!C9*1000</f>
         <v>43881.727327334855</v>
       </c>
@@ -6409,7 +6518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>128</v>
       </c>
@@ -6431,7 +6540,7 @@
       <c r="I18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="39">
         <f>config!D9*1000</f>
         <v>29032.066422098611</v>
       </c>
@@ -6439,54 +6548,145 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G23" s="8" t="str">
+        <f>IF(RIGHT(B21,1)&lt;&gt;" ","~UC_T","")</f>
+        <v>~UC_T</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F26" s="8">
+        <v>2030</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>19600</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2030</v>
+      </c>
+      <c r="I27" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="8">
         <v>2050</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="8">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="K19" s="8">
+      <c r="J28" s="8">
         <v>0</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F29" s="8">
         <v>2050</v>
       </c>
-      <c r="J20" s="8">
+      <c r="I29" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="8">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="J30" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6506,15 +6706,15 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="16" t="s">
         <v>82</v>
       </c>
@@ -6525,7 +6725,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17" t="s">
         <v>83</v>
       </c>
@@ -6550,7 +6750,7 @@
         <v>National</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="10" t="s">
         <v>85</v>
